--- a/data/trans_orig/cron_prev_index-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/cron_prev_index-Dificultad-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>0.53963215955467</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.7528880625693498</v>
+        <v>0.7528880625693499</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.894362347195141</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5815877177142657</v>
+        <v>0.5745501022695599</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4669285925057845</v>
+        <v>0.4670576104328819</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4886302860809874</v>
+        <v>0.4900857328531202</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.6513009021076557</v>
+        <v>0.6485800663765388</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.8196605213693251</v>
+        <v>0.8294695171549624</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.7369137386799111</v>
+        <v>0.7353408328849619</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.677973166825375</v>
+        <v>0.6843951390659561</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.9447765254406436</v>
+        <v>0.9472310920353266</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.7458695796291069</v>
+        <v>0.7501417569382544</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.6262892767468764</v>
+        <v>0.6225540238168921</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.6057511349313079</v>
+        <v>0.6075443016695828</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.8466350209216584</v>
+        <v>0.8385389013820348</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7419589941179509</v>
+        <v>0.743690675881017</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5911795348882326</v>
+        <v>0.590688945822602</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5968842832923824</v>
+        <v>0.5987539699901498</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8619532131471878</v>
+        <v>0.8600011792908935</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9704908262900309</v>
+        <v>0.9745617102393799</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8810871161932555</v>
+        <v>0.8739219857690836</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8075655183711044</v>
+        <v>0.8139419029475962</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.128361855589342</v>
+        <v>1.123187035588441</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.8583842633714251</v>
+        <v>0.8590210202293029</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.7161359053569002</v>
+        <v>0.7164419590661596</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.6923759558074766</v>
+        <v>0.6922979240589857</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.9842303326106792</v>
+        <v>0.9880169784504429</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4013703034195442</v>
+        <v>0.4106030514459429</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.46102600107679</v>
+        <v>0.4689072915253831</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4502264079873493</v>
+        <v>0.4517112143607621</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5848328227880031</v>
+        <v>0.5854285097255654</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5633908104590937</v>
+        <v>0.5718202074170053</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.6318279781771553</v>
+        <v>0.6357608195956482</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.5728038310325738</v>
+        <v>0.5705834574823162</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.7597792721990099</v>
+        <v>0.7528151330305554</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.4995445091821112</v>
+        <v>0.499772341513696</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.5658461969911555</v>
+        <v>0.5707884531058194</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.5275336560243927</v>
+        <v>0.5269572612167956</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.6924265392531489</v>
+        <v>0.6940891318776797</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4985867572078493</v>
+        <v>0.5033378581199869</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5841692917560963</v>
+        <v>0.582512192031873</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5619214076951203</v>
+        <v>0.5649121477358923</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7158273783900343</v>
+        <v>0.724883418012949</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6824211965148362</v>
+        <v>0.6903273391370455</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7638915129666769</v>
+        <v>0.7533616368249237</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.7014773536882838</v>
+        <v>0.7008530505141995</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.8730906013100387</v>
+        <v>0.8712870629925581</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.5762497110202536</v>
+        <v>0.5759559354278775</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.6535726559831098</v>
+        <v>0.656197610330809</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.6130282621663261</v>
+        <v>0.6189319899228167</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.7789457348849721</v>
+        <v>0.7816760899270163</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>0.5021916832657077</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.6394048078623128</v>
+        <v>0.6394048078623127</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.5118251995587532</v>
@@ -953,7 +953,7 @@
         <v>0.5985751555628994</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.7023239518444706</v>
+        <v>0.7023239518444707</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.4328229111724764</v>
@@ -965,7 +965,7 @@
         <v>0.5487909284407524</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.6708818417210897</v>
+        <v>0.6708818417210898</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3242462090451933</v>
+        <v>0.3233292228384373</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5309042724198857</v>
+        <v>0.5332600207422951</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4491978595298448</v>
+        <v>0.4445071125189294</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5851041345265972</v>
+        <v>0.5869201583795802</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4551567081373124</v>
+        <v>0.4575555771807431</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.6059754520133233</v>
+        <v>0.6069607598914242</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.5394778090281427</v>
+        <v>0.5358078631921449</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.6538710297120961</v>
+        <v>0.6461532423116392</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3985692445689976</v>
+        <v>0.397821176115674</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.5833319205915799</v>
+        <v>0.5884081643059751</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.5062695383325326</v>
+        <v>0.5031596285295439</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.6310081318302729</v>
+        <v>0.6275071608411907</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4054195433461225</v>
+        <v>0.4098032342567214</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6568466070597607</v>
+        <v>0.6645781858795252</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5644270506800555</v>
+        <v>0.5641231241927015</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6923555375437724</v>
+        <v>0.7035228253001893</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5706949463505013</v>
+        <v>0.5737549942656515</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7382404270227813</v>
+        <v>0.7406631504358868</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.6698694195142163</v>
+        <v>0.66045618034625</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.7573626927471465</v>
+        <v>0.7569654738655253</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4712373917833108</v>
+        <v>0.4688257295560402</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.6811318647643055</v>
+        <v>0.6826946212172031</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.5897399162020233</v>
+        <v>0.5955132674140817</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.7118278662426271</v>
+        <v>0.706818971554081</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>0.5247826613279525</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.6851916755305519</v>
+        <v>0.685191675530552</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.4582857522284626</v>
@@ -1101,7 +1101,7 @@
         <v>0.5294965046654889</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.6880165057830226</v>
+        <v>0.6880165057830225</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2892838962689118</v>
+        <v>0.2839849085686469</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4032460186205841</v>
+        <v>0.3928247574682371</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4539567840280423</v>
+        <v>0.4560392696977585</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6170738654403827</v>
+        <v>0.6215559681368609</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3665195464801985</v>
+        <v>0.380390658736274</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.4774267747257125</v>
+        <v>0.4826853843198851</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.4490453592699764</v>
+        <v>0.4514989593137507</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.6339423793945688</v>
+        <v>0.6375051866123078</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3456834093588214</v>
+        <v>0.3449421019560365</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.4592596728554655</v>
+        <v>0.4609457225208665</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.4723984210597933</v>
+        <v>0.4773059525005762</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.6485279634706695</v>
+        <v>0.6468071260711185</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4320637422359149</v>
+        <v>0.4218734951513065</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5634473858180613</v>
+        <v>0.5698618936871994</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6083707321107059</v>
+        <v>0.6186344936603797</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7482881436040881</v>
+        <v>0.7519199733102178</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5606969366163089</v>
+        <v>0.5751581718744797</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6638192576475517</v>
+        <v>0.6640931118259057</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.6313005741811121</v>
+        <v>0.6240056499812362</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.7457123873813665</v>
+        <v>0.7463569720018832</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4557273892274711</v>
+        <v>0.459138040846181</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.576252936674301</v>
+        <v>0.5826747411006875</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.5892157103041095</v>
+        <v>0.5897944562658607</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.7324241229047732</v>
+        <v>0.7301259175754313</v>
       </c>
     </row>
     <row r="16">
@@ -1237,7 +1237,7 @@
         <v>0.5862793978385652</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.7315339424362314</v>
+        <v>0.7315339424362312</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4193659214879045</v>
+        <v>0.4179411511282195</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5016607071138994</v>
+        <v>0.5014324513866197</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4895776229572494</v>
+        <v>0.4870253057627837</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.6384834185764374</v>
+        <v>0.6384852008865336</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.6135640848457207</v>
+        <v>0.6090777103338821</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.671997022412381</v>
+        <v>0.6696829287619025</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.6162666858990229</v>
+        <v>0.6193676675224588</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.7573968530856581</v>
+        <v>0.7594044695593517</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.5250498205306603</v>
+        <v>0.5263980263463538</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.5981378703749909</v>
+        <v>0.5988341992531433</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.5629380168127891</v>
+        <v>0.5642587293073744</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.7089348279091736</v>
+        <v>0.7097126218418527</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4765565348478243</v>
+        <v>0.4756077870054886</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5706054129410673</v>
+        <v>0.5675334167226865</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5476403943437878</v>
+        <v>0.5451025467285077</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.7042835040012186</v>
+        <v>0.7063259577700773</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6806316214300858</v>
+        <v>0.679540987845653</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.742029632544812</v>
+        <v>0.7425068659977233</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.6857073454112831</v>
+        <v>0.6877005616326752</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.8182311250202799</v>
+        <v>0.8200564677542722</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.5680703721617455</v>
+        <v>0.5687786296961437</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.6486800853258051</v>
+        <v>0.6459716885085611</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.6093018516327349</v>
+        <v>0.6113798598150191</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.7568236313399727</v>
+        <v>0.7567604118556526</v>
       </c>
     </row>
     <row r="19">
